--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CB9FC4-7545-A84E-9641-934915D823A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593582A-406D-1C4B-A433-F75FB476E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="32180" windowHeight="18720" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="32180" windowHeight="18720" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Имя</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Акушко Эдуард</t>
+  </si>
+  <si>
+    <t>Шилко Вадим</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1065,7 +1068,9 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
@@ -1074,29 +1079,63 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G6" s="17">
         <f t="array" ref="G6">SUM(H6:X6*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
+        <v>3.5800000000000005</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16">
+        <v>5</v>
+      </c>
+      <c r="M6" s="16">
+        <v>4</v>
+      </c>
+      <c r="N6" s="16">
+        <v>5</v>
+      </c>
+      <c r="O6" s="16">
+        <v>5</v>
+      </c>
+      <c r="P6" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>2</v>
+      </c>
+      <c r="R6" s="16">
+        <v>3</v>
+      </c>
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
+      <c r="T6" s="16">
+        <v>5</v>
+      </c>
+      <c r="U6" s="16">
+        <v>5</v>
+      </c>
+      <c r="V6" s="16">
+        <v>4</v>
+      </c>
+      <c r="W6" s="16">
+        <v>4</v>
+      </c>
+      <c r="X6" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
@@ -4114,7 +4153,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4182,7 +4221,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593582A-406D-1C4B-A433-F75FB476E8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09731890-4FFA-A148-BFA6-0A76C051F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="32180" windowHeight="18720" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
   <si>
     <t>Имя</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Шилко Вадим</t>
+  </si>
+  <si>
+    <t>Мшар Павел</t>
   </si>
 </sst>
 </file>
@@ -718,9 +721,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1141,9 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
@@ -1147,29 +1152,63 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B+</v>
       </c>
       <c r="G7" s="17">
         <f t="array" ref="G7">SUM(H7:X7*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4</v>
+      </c>
+      <c r="J7" s="16">
+        <v>5</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="16">
+        <v>5</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3</v>
+      </c>
+      <c r="N7" s="16">
+        <v>4</v>
+      </c>
+      <c r="O7" s="16">
+        <v>5</v>
+      </c>
+      <c r="P7" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>2</v>
+      </c>
+      <c r="R7" s="16">
+        <v>5</v>
+      </c>
+      <c r="S7" s="16">
+        <v>5</v>
+      </c>
+      <c r="T7" s="16">
+        <v>5</v>
+      </c>
+      <c r="U7" s="16">
+        <v>5</v>
+      </c>
+      <c r="V7" s="16">
+        <v>4</v>
+      </c>
+      <c r="W7" s="16">
+        <v>4</v>
+      </c>
+      <c r="X7" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
@@ -4187,7 +4226,7 @@
       </c>
       <c r="C7" s="13">
         <f t="array" ref="C7">SUM(IF(Результаты!F$4:F$92=$A7,1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
         <f t="array" ref="D7">IF(SUM(IF(Результаты!$E$4:$E$89="В+",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4221,7 +4260,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09731890-4FFA-A148-BFA6-0A76C051F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A402739-D246-1847-BF3E-07B5A91394DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="32180" windowHeight="18720" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
   <si>
     <t>Имя</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Мшар Павел</t>
+  </si>
+  <si>
+    <t>Матвеенко Юрий</t>
   </si>
 </sst>
 </file>
@@ -721,9 +724,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1214,9 @@
       </c>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
@@ -1220,29 +1225,63 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G8" s="17">
         <f t="array" ref="G8">SUM(H8:X8*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
+        <v>3.4100000000000006</v>
+      </c>
+      <c r="H8" s="16">
+        <v>5</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4</v>
+      </c>
+      <c r="K8" s="16">
+        <v>4</v>
+      </c>
+      <c r="L8" s="16">
+        <v>5</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+      <c r="N8" s="16">
+        <v>2</v>
+      </c>
+      <c r="O8" s="16">
+        <v>3</v>
+      </c>
+      <c r="P8" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>2</v>
+      </c>
+      <c r="R8" s="16">
+        <v>4</v>
+      </c>
+      <c r="S8" s="16">
+        <v>4</v>
+      </c>
+      <c r="T8" s="16">
+        <v>5</v>
+      </c>
+      <c r="U8" s="16">
+        <v>5</v>
+      </c>
+      <c r="V8" s="16">
+        <v>4</v>
+      </c>
+      <c r="W8" s="16">
+        <v>4</v>
+      </c>
+      <c r="X8" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
@@ -4192,7 +4231,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4260,7 +4299,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A402739-D246-1847-BF3E-07B5A91394DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4FC60-2EBA-F646-B502-7CF12BB38F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>Имя</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Матвеенко Юрий</t>
+  </si>
+  <si>
+    <t>Яшный Илья</t>
+  </si>
+  <si>
+    <t>Гавриленко Виктор</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1290,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
@@ -1293,63 +1301,135 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G9" s="17">
         <f t="array" ref="G9">SUM(H9:X9*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
+        <v>3.1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>5</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16">
+        <v>5</v>
+      </c>
+      <c r="M9" s="16">
+        <v>3</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2</v>
+      </c>
+      <c r="O9" s="16">
+        <v>3</v>
+      </c>
+      <c r="P9" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>2</v>
+      </c>
+      <c r="R9" s="16">
+        <v>3</v>
+      </c>
+      <c r="S9" s="16">
+        <v>3</v>
+      </c>
+      <c r="T9" s="16">
+        <v>5</v>
+      </c>
+      <c r="U9" s="16">
+        <v>5</v>
+      </c>
+      <c r="V9" s="16">
+        <v>3</v>
+      </c>
+      <c r="W9" s="16">
+        <v>3</v>
+      </c>
+      <c r="X9" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="16">
+        <v>20</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G10" s="17">
         <f t="array" ref="G10">SUM(H10:X10*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
+        <v>3.7500000000000009</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5</v>
+      </c>
+      <c r="K10" s="16">
+        <v>3</v>
+      </c>
+      <c r="L10" s="16">
+        <v>5</v>
+      </c>
+      <c r="M10" s="16">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16">
+        <v>5</v>
+      </c>
+      <c r="O10" s="16">
+        <v>4</v>
+      </c>
+      <c r="P10" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>2</v>
+      </c>
+      <c r="R10" s="16">
+        <v>3</v>
+      </c>
+      <c r="S10" s="16">
+        <v>3</v>
+      </c>
+      <c r="T10" s="16">
+        <v>5</v>
+      </c>
+      <c r="U10" s="16">
+        <v>5</v>
+      </c>
+      <c r="V10" s="16">
+        <v>4</v>
+      </c>
+      <c r="W10" s="16">
+        <v>3</v>
+      </c>
+      <c r="X10" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
@@ -4214,7 +4294,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4231,7 +4311,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4299,7 +4379,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4327,11 +4407,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4FC60-2EBA-F646-B502-7CF12BB38F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76891EB6-49AB-3845-94A3-DB8B87E3B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>Имя</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Гавриленко Виктор</t>
+  </si>
+  <si>
+    <t>Бухарова Эвелина</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1432,38 +1435,76 @@
       </c>
     </row>
     <row r="11" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="16">
+        <v>30</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G11" s="17">
         <f t="array" ref="G11">SUM(H11:X11*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16">
+        <v>3</v>
+      </c>
+      <c r="L11" s="16">
+        <v>2</v>
+      </c>
+      <c r="M11" s="16">
+        <v>3</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2</v>
+      </c>
+      <c r="P11" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>3</v>
+      </c>
+      <c r="R11" s="16">
+        <v>3</v>
+      </c>
+      <c r="S11" s="16">
+        <v>3</v>
+      </c>
+      <c r="T11" s="16">
+        <v>5</v>
+      </c>
+      <c r="U11" s="7">
+        <v>5</v>
+      </c>
+      <c r="V11" s="16">
+        <v>4</v>
+      </c>
+      <c r="W11" s="16">
+        <v>2</v>
+      </c>
+      <c r="X11" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
@@ -4294,7 +4335,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4379,7 +4420,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4407,11 +4448,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76891EB6-49AB-3845-94A3-DB8B87E3B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE0F14-1202-1048-B705-D0C1D5682ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
   <si>
     <t>Имя</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Бухарова Эвелина</t>
+  </si>
+  <si>
+    <t>Прокопович Александр</t>
   </si>
 </sst>
 </file>
@@ -733,9 +736,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1510,9 @@
       </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
@@ -1516,29 +1521,63 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G12" s="17">
         <f t="array" ref="G12">SUM(H12:X12*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+        <v>3.6100000000000008</v>
+      </c>
+      <c r="H12" s="16">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16">
+        <v>4</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5</v>
+      </c>
+      <c r="K12" s="16">
+        <v>3</v>
+      </c>
+      <c r="L12" s="16">
+        <v>3</v>
+      </c>
+      <c r="M12" s="16">
+        <v>4</v>
+      </c>
+      <c r="N12" s="16">
+        <v>4</v>
+      </c>
+      <c r="O12" s="16">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>2</v>
+      </c>
+      <c r="R12" s="16">
+        <v>3</v>
+      </c>
+      <c r="S12" s="16">
+        <v>3</v>
+      </c>
+      <c r="T12" s="16">
+        <v>5</v>
+      </c>
+      <c r="U12" s="16">
+        <v>5</v>
+      </c>
+      <c r="V12" s="16">
+        <v>4</v>
+      </c>
+      <c r="W12" s="16">
+        <v>4</v>
+      </c>
+      <c r="X12" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -4352,7 +4391,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4420,7 +4459,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE0F14-1202-1048-B705-D0C1D5682ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018F0B1-7E10-004D-ABBD-A22A4CC7E013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
   <si>
     <t>Имя</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Прокопович Александр</t>
+  </si>
+  <si>
+    <t>Деркач Дмитрий</t>
   </si>
 </sst>
 </file>
@@ -736,9 +739,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1580,38 +1583,76 @@
       </c>
     </row>
     <row r="13" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="16">
+        <v>20</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G13" s="17">
         <f t="array" ref="G13">SUM(H13:X13*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
+        <v>3.1700000000000004</v>
+      </c>
+      <c r="H13" s="16">
+        <v>3</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5</v>
+      </c>
+      <c r="K13" s="16">
+        <v>2</v>
+      </c>
+      <c r="L13" s="16">
+        <v>3</v>
+      </c>
+      <c r="M13" s="16">
+        <v>3</v>
+      </c>
+      <c r="N13" s="16">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>3</v>
+      </c>
+      <c r="P13" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>2</v>
+      </c>
+      <c r="R13" s="16">
+        <v>2</v>
+      </c>
+      <c r="S13" s="16">
+        <v>3</v>
+      </c>
+      <c r="T13" s="16">
+        <v>3</v>
+      </c>
+      <c r="U13" s="16">
+        <v>5</v>
+      </c>
+      <c r="V13" s="16">
+        <v>4</v>
+      </c>
+      <c r="W13" s="16">
+        <v>3</v>
+      </c>
+      <c r="X13" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -4374,7 +4415,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4459,7 +4500,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4483,15 +4524,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018F0B1-7E10-004D-ABBD-A22A4CC7E013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BCFB7-9229-4D4B-8EFE-0E0FF340A763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52560" yWindow="0" windowWidth="20400" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Имя</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Деркач Дмитрий</t>
+  </si>
+  <si>
+    <t>Павлюткин Павел</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1655,38 +1658,76 @@
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="B14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="16">
+        <v>30</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G14" s="17">
         <f t="array" ref="G14">SUM(H14:X14*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
+        <v>3.3800000000000003</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3</v>
+      </c>
+      <c r="L14" s="16">
+        <v>3</v>
+      </c>
+      <c r="M14" s="16">
+        <v>4</v>
+      </c>
+      <c r="N14" s="16">
+        <v>2</v>
+      </c>
+      <c r="O14" s="16">
+        <v>2</v>
+      </c>
+      <c r="P14" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>2</v>
+      </c>
+      <c r="R14" s="16">
+        <v>2</v>
+      </c>
+      <c r="S14" s="16">
+        <v>4</v>
+      </c>
+      <c r="T14" s="16">
+        <v>5</v>
+      </c>
+      <c r="U14" s="16">
+        <v>5</v>
+      </c>
+      <c r="V14" s="16">
+        <v>4</v>
+      </c>
+      <c r="W14" s="16">
+        <v>4</v>
+      </c>
+      <c r="X14" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
@@ -4415,7 +4456,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4500,7 +4541,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4528,11 +4569,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BCFB7-9229-4D4B-8EFE-0E0FF340A763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6577F8-2284-FA40-AFDB-198F5B4B6C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52560" yWindow="0" windowWidth="20400" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
   <si>
     <t>Имя</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Павлюткин Павел</t>
+  </si>
+  <si>
+    <t>Павленко Андрей</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1730,38 +1733,76 @@
       </c>
     </row>
     <row r="15" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="B15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16">
+        <v>30</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B+</v>
       </c>
       <c r="G15" s="17">
         <f t="array" ref="G15">SUM(H15:X15*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
+        <v>4.13</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>4</v>
+      </c>
+      <c r="J15" s="16">
+        <v>5</v>
+      </c>
+      <c r="K15" s="16">
+        <v>3</v>
+      </c>
+      <c r="L15" s="16">
+        <v>5</v>
+      </c>
+      <c r="M15" s="16">
+        <v>5</v>
+      </c>
+      <c r="N15" s="16">
+        <v>4</v>
+      </c>
+      <c r="O15" s="16">
+        <v>4</v>
+      </c>
+      <c r="P15" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>3</v>
+      </c>
+      <c r="R15" s="16">
+        <v>3</v>
+      </c>
+      <c r="S15" s="16">
+        <v>4</v>
+      </c>
+      <c r="T15" s="16">
+        <v>5</v>
+      </c>
+      <c r="U15" s="16">
+        <v>5</v>
+      </c>
+      <c r="V15" s="16">
+        <v>5</v>
+      </c>
+      <c r="W15" s="16">
+        <v>4</v>
+      </c>
+      <c r="X15" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -4507,7 +4548,7 @@
       </c>
       <c r="C7" s="13">
         <f t="array" ref="C7">SUM(IF(Результаты!F$4:F$92=$A7,1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
         <f t="array" ref="D7">IF(SUM(IF(Результаты!$E$4:$E$89="В+",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4541,7 +4582,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4565,15 +4606,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6577F8-2284-FA40-AFDB-198F5B4B6C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165EC277-B100-EF43-A1E1-8B62436A93F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52560" yWindow="0" windowWidth="20400" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52260" yWindow="0" windowWidth="20700" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>Имя</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Павленко Андрей</t>
+  </si>
+  <si>
+    <t>Григорчик Александр</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1805,38 +1808,76 @@
       </c>
     </row>
     <row r="16" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="16">
+        <v>20</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G16" s="17">
         <f t="array" ref="G16">SUM(H16:X16*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+        <v>3.41</v>
+      </c>
+      <c r="H16" s="16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="16">
+        <v>3</v>
+      </c>
+      <c r="M16" s="16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="16">
+        <v>3</v>
+      </c>
+      <c r="O16" s="16">
+        <v>4</v>
+      </c>
+      <c r="P16" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>2</v>
+      </c>
+      <c r="R16" s="16">
+        <v>2</v>
+      </c>
+      <c r="S16" s="16">
+        <v>3</v>
+      </c>
+      <c r="T16" s="16">
+        <v>5</v>
+      </c>
+      <c r="U16" s="16">
+        <v>5</v>
+      </c>
+      <c r="V16" s="16">
+        <v>4</v>
+      </c>
+      <c r="W16" s="16">
+        <v>3</v>
+      </c>
+      <c r="X16" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -4514,7 +4555,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4582,7 +4623,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4610,11 +4651,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165EC277-B100-EF43-A1E1-8B62436A93F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E98A5-E994-314C-A561-B2827588C26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52260" yWindow="0" windowWidth="20700" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
   <si>
     <t>Имя</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Григорчик Александр</t>
+  </si>
+  <si>
+    <t>Мелкунас Андрей</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1880,38 +1883,76 @@
       </c>
     </row>
     <row r="17" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="16">
+        <v>20</v>
+      </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G17" s="17">
         <f t="array" ref="G17">SUM(H17:X17*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
+        <v>3.3800000000000003</v>
+      </c>
+      <c r="H17" s="16">
+        <v>5</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16">
+        <v>2</v>
+      </c>
+      <c r="L17" s="16">
+        <v>5</v>
+      </c>
+      <c r="M17" s="16">
+        <v>4</v>
+      </c>
+      <c r="N17" s="16">
+        <v>3</v>
+      </c>
+      <c r="O17" s="16">
+        <v>4</v>
+      </c>
+      <c r="P17" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>3</v>
+      </c>
+      <c r="R17" s="16">
+        <v>2</v>
+      </c>
+      <c r="S17" s="16">
+        <v>3</v>
+      </c>
+      <c r="T17" s="16">
+        <v>4</v>
+      </c>
+      <c r="U17" s="16">
+        <v>3</v>
+      </c>
+      <c r="V17" s="16">
+        <v>4</v>
+      </c>
+      <c r="W17" s="16">
+        <v>4</v>
+      </c>
+      <c r="X17" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
@@ -4538,7 +4579,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4623,7 +4664,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4651,11 +4692,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5E98A5-E994-314C-A561-B2827588C26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74406FB-22BD-DA43-A787-485B6D597F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52260" yWindow="0" windowWidth="20700" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51960" yWindow="0" windowWidth="21000" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
   <si>
     <t>Имя</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Мелкунас Андрей</t>
+  </si>
+  <si>
+    <t>Пивовар Владимир</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1110,9 @@
       <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="16">
+        <v>25</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="str">
@@ -1177,7 +1182,9 @@
       <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="16">
+        <v>30</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="str">
@@ -1247,7 +1254,9 @@
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="16">
+        <v>30</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="str">
@@ -1317,7 +1326,9 @@
       <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16">
+        <v>20</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16" t="str">
@@ -1531,7 +1542,9 @@
       <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16">
+        <v>20</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="str">
@@ -1955,7 +1968,9 @@
       </c>
     </row>
     <row r="18" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="B18" s="18" t="s">
         <v>38</v>
       </c>
@@ -1964,13 +1979,15 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G18" s="17">
         <f t="array" ref="G18">SUM(H18:X18*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -4579,7 +4596,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4664,7 +4681,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,15 +4705,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>230</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74406FB-22BD-DA43-A787-485B6D597F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA664C2-1CA9-F74D-B504-C1D36612CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51960" yWindow="0" windowWidth="21000" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
   <si>
     <t>Имя</t>
   </si>
@@ -197,13 +197,16 @@
   </si>
   <si>
     <t>Пивовар Владимир</t>
+  </si>
+  <si>
+    <t>Типун Максим</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +227,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +246,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -341,14 +356,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,8 +462,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -756,7 +788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1967,77 +1999,115 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:24" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="str">
+      <c r="B18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="38">
         <f t="array" ref="G18">SUM(H18:X18*H$3:X$3)</f>
         <v>0.1</v>
       </c>
-      <c r="H18" s="16">
-        <v>5</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
+      <c r="H18" s="37">
+        <v>5</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
     </row>
     <row r="19" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="16">
+        <v>20</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G19" s="17">
         <f t="array" ref="G19">SUM(H19:X19*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
+        <v>3.3400000000000003</v>
+      </c>
+      <c r="H19" s="16">
+        <v>3</v>
+      </c>
+      <c r="I19" s="16">
+        <v>1</v>
+      </c>
+      <c r="J19" s="16">
+        <v>3</v>
+      </c>
+      <c r="K19" s="16">
+        <v>3</v>
+      </c>
+      <c r="L19" s="16">
+        <v>3</v>
+      </c>
+      <c r="M19" s="16">
+        <v>3</v>
+      </c>
+      <c r="N19" s="16">
+        <v>3</v>
+      </c>
+      <c r="O19" s="16">
+        <v>3</v>
+      </c>
+      <c r="P19" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>4</v>
+      </c>
+      <c r="R19" s="16">
+        <v>3</v>
+      </c>
+      <c r="S19" s="16">
+        <v>3</v>
+      </c>
+      <c r="T19" s="16">
+        <v>5</v>
+      </c>
+      <c r="U19" s="16">
+        <v>5</v>
+      </c>
+      <c r="V19" s="16">
+        <v>4</v>
+      </c>
+      <c r="W19" s="16">
+        <v>3</v>
+      </c>
+      <c r="X19" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
@@ -4596,7 +4666,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4681,7 +4751,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,15 +4775,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA664C2-1CA9-F74D-B504-C1D36612CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F003434-E006-FD4F-8188-5FF62B03ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>Имя</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Типун Максим</t>
+  </si>
+  <si>
+    <t>Мельников Вадим</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2110,38 +2113,76 @@
       </c>
     </row>
     <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="B20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="16">
+        <v>25</v>
+      </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G20" s="17">
         <f t="array" ref="G20">SUM(H20:X20*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2</v>
+      </c>
+      <c r="I20" s="16">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16">
+        <v>5</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3</v>
+      </c>
+      <c r="L20" s="16">
+        <v>3</v>
+      </c>
+      <c r="M20" s="16">
+        <v>3</v>
+      </c>
+      <c r="N20" s="16">
+        <v>3</v>
+      </c>
+      <c r="O20" s="16">
+        <v>3</v>
+      </c>
+      <c r="P20" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>2</v>
+      </c>
+      <c r="R20" s="16">
+        <v>2</v>
+      </c>
+      <c r="S20" s="16">
+        <v>3</v>
+      </c>
+      <c r="T20" s="16">
+        <v>3</v>
+      </c>
+      <c r="U20" s="16">
+        <v>4</v>
+      </c>
+      <c r="V20" s="16">
+        <v>4</v>
+      </c>
+      <c r="W20" s="16">
+        <v>4</v>
+      </c>
+      <c r="X20" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
@@ -4666,7 +4707,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4751,7 +4792,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4779,11 +4820,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F003434-E006-FD4F-8188-5FF62B03ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC89612-D65C-864C-B5F4-28C0C16E1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>Имя</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Мельников Вадим</t>
+  </si>
+  <si>
+    <t>Шеремет Кирилл</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2185,38 +2188,76 @@
       </c>
     </row>
     <row r="21" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="B21" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="16">
+        <v>20</v>
+      </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="str">
         <f t="shared" ref="F21" si="1">IF(NOT(EXACT(A21,"")),IF(G21=0,"D",IF(G21&lt;3.4,"C",IF(G21&lt;3.8,"B-",IF(G21&lt;4,"B",IF(G21&lt;4.3,"B+","A"))))),"-")</f>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G21" s="17">
         <f t="array" ref="G21">SUM(H21:X21*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
+        <v>3.3000000000000007</v>
+      </c>
+      <c r="H21" s="16">
+        <v>3</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5</v>
+      </c>
+      <c r="K21" s="16">
+        <v>3</v>
+      </c>
+      <c r="L21" s="16">
+        <v>3</v>
+      </c>
+      <c r="M21" s="16">
+        <v>2</v>
+      </c>
+      <c r="N21" s="16">
+        <v>3</v>
+      </c>
+      <c r="O21" s="16">
+        <v>3</v>
+      </c>
+      <c r="P21" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>2</v>
+      </c>
+      <c r="R21" s="16">
+        <v>3</v>
+      </c>
+      <c r="S21" s="16">
+        <v>3</v>
+      </c>
+      <c r="T21" s="16">
+        <v>5</v>
+      </c>
+      <c r="U21" s="16">
+        <v>5</v>
+      </c>
+      <c r="V21" s="16">
+        <v>4</v>
+      </c>
+      <c r="W21" s="16">
+        <v>4</v>
+      </c>
+      <c r="X21" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
@@ -4707,7 +4748,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4792,7 +4833,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4816,15 +4857,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC89612-D65C-864C-B5F4-28C0C16E1AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542EE83-8006-0049-AC50-B4C426703B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="740" windowWidth="17160" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <t>Имя</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Шеремет Кирилл</t>
+  </si>
+  <si>
+    <t>Могилевцев Андрей</t>
   </si>
 </sst>
 </file>
@@ -438,6 +441,21 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,21 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -794,7 +797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -825,55 +828,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="H1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
@@ -927,14 +930,14 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="4">
         <f>SUM(H3:X3)</f>
         <v>1</v>
@@ -2005,43 +2008,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:24" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37" t="str">
+      <c r="B18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="28">
         <f t="array" ref="G18">SUM(H18:X18*H$3:X$3)</f>
         <v>0.1</v>
       </c>
-      <c r="H18" s="37">
-        <v>5</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="H18" s="27">
+        <v>5</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
     </row>
     <row r="19" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
@@ -2260,38 +2263,76 @@
       </c>
     </row>
     <row r="22" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="B22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="16">
+        <v>20</v>
+      </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G22" s="17">
         <f t="array" ref="G22">SUM(H22:X22*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="H22" s="16">
+        <v>3</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>5</v>
+      </c>
+      <c r="K22" s="16">
+        <v>3</v>
+      </c>
+      <c r="L22" s="16">
+        <v>2</v>
+      </c>
+      <c r="M22" s="16">
+        <v>4</v>
+      </c>
+      <c r="N22" s="16">
+        <v>3</v>
+      </c>
+      <c r="O22" s="16">
+        <v>4</v>
+      </c>
+      <c r="P22" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>2</v>
+      </c>
+      <c r="R22" s="16">
+        <v>2</v>
+      </c>
+      <c r="S22" s="16">
+        <v>3</v>
+      </c>
+      <c r="T22" s="16">
+        <v>5</v>
+      </c>
+      <c r="U22" s="16">
+        <v>5</v>
+      </c>
+      <c r="V22" s="16">
+        <v>3</v>
+      </c>
+      <c r="W22" s="16">
+        <v>3</v>
+      </c>
+      <c r="X22" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
@@ -4708,11 +4749,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -4748,7 +4789,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4833,15 +4874,15 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
@@ -4861,11 +4902,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542EE83-8006-0049-AC50-B4C426703B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E747F8-1CD2-BE46-B451-FA8821CB76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>Имя</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Могилевцев Андрей</t>
+  </si>
+  <si>
+    <t>Конашук Иван</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2335,7 +2338,9 @@
       </c>
     </row>
     <row r="23" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="B23" s="18" t="s">
         <v>38</v>
       </c>
@@ -2344,7 +2349,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>D</v>
       </c>
       <c r="G23" s="17">
         <f t="array" ref="G23">SUM(H23:X23*H$3:X$3)</f>
@@ -4776,7 +4781,7 @@
       </c>
       <c r="C3" s="13">
         <f t="array" ref="C3">SUM(IF(Результаты!F$4:F$92=$A3,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4874,7 +4879,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E747F8-1CD2-BE46-B451-FA8821CB76EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAD3F1-33E4-CB47-9483-9B5EFD80677A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2349,29 +2349,63 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v>B-</v>
       </c>
       <c r="G23" s="17">
         <f t="array" ref="G23">SUM(H23:X23*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
+        <v>3.580000000000001</v>
+      </c>
+      <c r="H23" s="16">
+        <v>5</v>
+      </c>
+      <c r="I23" s="16">
+        <v>4</v>
+      </c>
+      <c r="J23" s="16">
+        <v>5</v>
+      </c>
+      <c r="K23" s="16">
+        <v>3</v>
+      </c>
+      <c r="L23" s="16">
+        <v>5</v>
+      </c>
+      <c r="M23" s="16">
+        <v>3</v>
+      </c>
+      <c r="N23" s="16">
+        <v>3</v>
+      </c>
+      <c r="O23" s="16">
+        <v>3</v>
+      </c>
+      <c r="P23" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>3</v>
+      </c>
+      <c r="R23" s="16">
+        <v>3</v>
+      </c>
+      <c r="S23" s="16">
+        <v>3</v>
+      </c>
+      <c r="T23" s="16">
+        <v>5</v>
+      </c>
+      <c r="U23" s="16">
+        <v>5</v>
+      </c>
+      <c r="V23" s="16">
+        <v>4</v>
+      </c>
+      <c r="W23" s="16">
+        <v>3</v>
+      </c>
+      <c r="X23" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
@@ -4781,7 +4815,7 @@
       </c>
       <c r="C3" s="13">
         <f t="array" ref="C3">SUM(IF(Результаты!F$4:F$92=$A3,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4811,7 +4845,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAD3F1-33E4-CB47-9483-9B5EFD80677A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC1649-1F3C-744E-9D1F-1BB047E19259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2344,9 @@
       <c r="B23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="16">
+        <v>30</v>
+      </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="str">
@@ -4941,11 +4943,11 @@
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CC1649-1F3C-744E-9D1F-1BB047E19259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFFEE1-12CD-404A-A73E-9BDB647B0333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t>Имя</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Конашук Иван</t>
+  </si>
+  <si>
+    <t>Андрианов Руслан</t>
   </si>
 </sst>
 </file>
@@ -799,8 +802,8 @@
   <dimension ref="A1:X92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2410,7 +2413,9 @@
       </c>
     </row>
     <row r="24" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="B24" s="18" t="s">
         <v>38</v>
       </c>
@@ -2419,29 +2424,63 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B-</v>
       </c>
       <c r="G24" s="17">
         <f t="array" ref="G24">SUM(H24:X24*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
+        <v>3.68</v>
+      </c>
+      <c r="H24" s="16">
+        <v>3</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>5</v>
+      </c>
+      <c r="K24" s="16">
+        <v>4</v>
+      </c>
+      <c r="L24" s="16">
+        <v>3</v>
+      </c>
+      <c r="M24" s="16">
+        <v>3</v>
+      </c>
+      <c r="N24" s="16">
+        <v>3</v>
+      </c>
+      <c r="O24" s="16">
+        <v>3</v>
+      </c>
+      <c r="P24" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>2</v>
+      </c>
+      <c r="R24" s="16">
+        <v>4</v>
+      </c>
+      <c r="S24" s="16">
+        <v>4</v>
+      </c>
+      <c r="T24" s="16">
+        <v>5</v>
+      </c>
+      <c r="U24" s="16">
+        <v>5</v>
+      </c>
+      <c r="V24" s="16">
+        <v>4</v>
+      </c>
+      <c r="W24" s="16">
+        <v>4</v>
+      </c>
+      <c r="X24" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
@@ -4847,7 +4886,7 @@
       </c>
       <c r="C5" s="13">
         <f t="array" ref="C5">SUM(IF(Результаты!F$4:F$92=$A5,1,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="str">
         <f t="array" ref="D5">IF(SUM(IF(Результаты!$E$4:$E$89="В-",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4915,7 +4954,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFFEE1-12CD-404A-A73E-9BDB647B0333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA0761-DCFA-EB41-9FFC-BBBA48187E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA0761-DCFA-EB41-9FFC-BBBA48187E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797082D-3DA2-2A41-87F3-88ABFBF22FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -803,7 +803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2419,7 +2419,9 @@
       <c r="B24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="16">
+        <v>20</v>
+      </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16" t="str">
@@ -4978,15 +4980,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>(C12-B12)/60</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="13">
         <f>MOD(C12,60)</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C12" s="13">
         <f>SUM(Результаты!$C4:$C92)</f>
-        <v>470</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/2024-3q/Котов- Сводные оценки.xlsx
+++ b/2024-3q/Котов- Сводные оценки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797082D-3DA2-2A41-87F3-88ABFBF22FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D31E20-CA99-074F-9DF5-C76ACE852474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53860" yWindow="0" windowWidth="19100" windowHeight="21600" tabRatio="520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>Имя</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Андрианов Руслан</t>
+  </si>
+  <si>
+    <t>Лабудь Дмитрий</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2485,7 +2488,9 @@
       </c>
     </row>
     <row r="25" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="B25" s="18" t="s">
         <v>38</v>
       </c>
@@ -2494,29 +2499,63 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>C</v>
       </c>
       <c r="G25" s="17">
         <f t="array" ref="G25">SUM(H25:X25*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
+        <v>2.99</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>3</v>
+      </c>
+      <c r="J25" s="16">
+        <v>3</v>
+      </c>
+      <c r="K25" s="16">
+        <v>2</v>
+      </c>
+      <c r="L25" s="16">
+        <v>2</v>
+      </c>
+      <c r="M25" s="16">
+        <v>3</v>
+      </c>
+      <c r="N25" s="16">
+        <v>3</v>
+      </c>
+      <c r="O25" s="16">
+        <v>3</v>
+      </c>
+      <c r="P25" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>2</v>
+      </c>
+      <c r="R25" s="16">
+        <v>2</v>
+      </c>
+      <c r="S25" s="16">
+        <v>3</v>
+      </c>
+      <c r="T25" s="16">
+        <v>5</v>
+      </c>
+      <c r="U25" s="16">
+        <v>5</v>
+      </c>
+      <c r="V25" s="16">
+        <v>4</v>
+      </c>
+      <c r="W25" s="16">
+        <v>3</v>
+      </c>
+      <c r="X25" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
@@ -4871,7 +4910,7 @@
       </c>
       <c r="C4" s="13">
         <f t="array" ref="C4">SUM(IF(Результаты!F$4:F$92=$A4,1,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="str">
         <f t="array" ref="D4">IF(SUM(IF(Результаты!$E$4:$E$89="С",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4956,7 +4995,7 @@
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
